--- a/models/feature_importances/feat_imp_regression/catboost_fried_feature_importances.xlsx
+++ b/models/feature_importances/feat_imp_regression/catboost_fried_feature_importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C538"/>
+  <dimension ref="A1:C536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fried_State</t>
+          <t>EXAMCLIN02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.79182649641876</v>
+        <v>11.82585031715266</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.359910562893669</v>
+        <v>9.749453492853917</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.218568452526858</v>
+        <v>7.471539335297363</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.825098849357555</v>
+        <v>3.464822693540344</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EXAMCLIN02</t>
+          <t>SCORE TOTAL SPPB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.140540928737874</v>
+        <v>3.366874409317281</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.612967197470446</v>
+        <v>3.299601190289266</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SF3609_SQ007_</t>
+          <t>SPPB06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.144568754114908</v>
+        <v>3.068750050894942</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S36-Energy_fatigue</t>
+          <t>Sexe</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.014601312745262</v>
+        <v>2.463834314403063</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FROPCOM0027</t>
+          <t>EXAMCLIN01_SQ003_SQ001_</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7425685957485687</v>
+        <v>1.910717182416619</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,11 +570,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sexe</t>
+          <t>SF3609_SQ007_</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7404107991955614</v>
+        <v>1.895808251639095</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rightHandV2_baseline</t>
+          <t>FROPCOM0027 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6945385566366837</v>
+        <v>1.308484028857845</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SPPB06</t>
+          <t>Variation du poids</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6479215923215395</v>
+        <v>1.269093272367768</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FRAGIRE CALCUL TEST 3 VITMARCH.</t>
+          <t>leftHandV1_baseline</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6445569690809433</v>
+        <v>1.157039276710487</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ021_</t>
+          <t>FRAGIRE CALCUL TEST 3 VITMARCH.</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6219976499758267</v>
+        <v>1.113997372593098</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FROPCOM0027 - COTATION QUESTION</t>
+          <t>Smo_Ent_AccYWaist_baseline</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6012490155340711</v>
+        <v>1.065277381732532</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Variance_Latérale_YO_baseline</t>
+          <t>S36-Energy_fatigue</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5778629970581651</v>
+        <v>0.8034822035164058</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SCORE EPICE GLOBAL</t>
+          <t>ICOPE LOCOMOTION LEVER DE CHAISE NEGATIF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5171162404499441</v>
+        <v>0.7883895254769171</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5095464915394295</v>
+        <v>0.7787851780950016</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SPPB09 - COTATION</t>
+          <t>rightHandV1_baseline</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4507896600648862</v>
+        <v>0.7761894010454349</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Variation du poids</t>
+          <t>SF3609_SQ008_</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4186263150399155</v>
+        <v>0.6721907528226883</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>SF3601</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3882111959896185</v>
+        <v>0.6615029663149833</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SPPB9</t>
+          <t>FROPCOM0027</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.373648192673458</v>
+        <v>0.6485373206606724</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sta_Att_aAP_baseline</t>
+          <t>FROPCOM0007_SQ021_</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3731801428360493</v>
+        <v>0.6243811085596751</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SF36-01</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3645555099551051</v>
+        <v>0.610587162290156</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_ML_YF_baseline</t>
+          <t>peak_velocity_all_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3438116573143319</v>
+        <v>0.5708824203986737</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Interpretation score MMSE</t>
+          <t>FROPCOM0007_SQ015_</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3361189019676961</v>
+        <v>0.4989263374305556</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FROPCOM00016 - COTATION QUESTION</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3326562875469882</v>
+        <v>0.4818041547668122</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sway_area_per_second_ML_AND_AP_YF_baseline</t>
+          <t>FROP COM INTERPRETATION</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3236159365919959</v>
+        <v>0.4596082025099674</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rightHandV1_baseline</t>
+          <t>FRAGIRE09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3232289550026028</v>
+        <v>0.4465145339444515</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ011_</t>
+          <t>Smo_Ent_GyrXWaist_baseline</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3214668829979029</v>
+        <v>0.4339244819205338</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FRAGIRE13 -  COTATION</t>
+          <t>Vitesse_Moyenne_YF_baseline</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3165081797419618</v>
+        <v>0.4081439789666695</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SF3601</t>
+          <t>CycleVariability_baseline</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3053207776533448</v>
+        <v>0.4065164091923166</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MMSE06RAPPEL_SQ003_</t>
+          <t>MFESCALE000_SQ013_</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2975589407260821</v>
+        <v>0.3984931730480556</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SF3603_SQ010_</t>
+          <t>EXAMCLIN01_SQ001_SQ001_</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2893713517553331</v>
+        <v>0.3931847890736959</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SF3610</t>
+          <t>mean_velocity_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2867020476177802</v>
+        <v>0.3791949240490177</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SPPB_06_07_Variation_Vitesse_Relative</t>
+          <t>peak_velocity_all_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2853328192036453</v>
+        <v>0.3610498657503375</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Stu_RMS_aCCF_baseline</t>
+          <t>SF3611_SQ004_</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2734223283046636</v>
+        <v>0.3499905300520206</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SF26-20</t>
+          <t>SCORE FROP COM AVEC AMTS_MMSE_sur_3_SCORE TOTAL FROPCOM</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2699706227791666</v>
+        <v>0.3367750329764601</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EXAMCLIN01_SQ003_SQ001_</t>
+          <t>SF3603_SQ001_</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2673903475306393</v>
+        <v>0.323408678405706</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FRAGIRE09</t>
+          <t>peak_velocity_pos_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.264353765028959</v>
+        <v>0.3124199289168956</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LFS_ML_AND_AP_YO_baseline</t>
+          <t>MMSE06LANGAGE1_SQ003_</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2468672909072837</v>
+        <v>0.3083482263073948</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mean_velocity_AP_YF_baseline</t>
+          <t>SAPASDEMORAN_SQ004_</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2413494875572467</v>
+        <v>0.307085307548313</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SCORE TOTAL STI</t>
+          <t>SF3611_SQ003_</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2396143709404199</v>
+        <v>0.3060906309903733</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccZWaist_baseline</t>
+          <t>Ste_cvSwT_R_baseline</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2375212339093155</v>
+        <v>0.293866897473117</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SCORE TOTAL SPPB</t>
+          <t>SF36-16</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2332225005021185</v>
+        <v>0.2914061879769052</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>mean_value_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2331084122417158</v>
+        <v>0.2913806192804648</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,11 +1051,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>peak_velocity_all_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.230031295015308</v>
+        <v>0.2864192621685691</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SF36-General health</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2277299509244211</v>
+        <v>0.2849181117705047</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Smo_Ent_AccZWaist_baseline</t>
+          <t>critical_displacement_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2262677557173911</v>
+        <v>0.2792396664164962</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EXAMCLIN01_SQ001_SQ001_</t>
+          <t>frequency_quotient_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2172366289920729</v>
+        <v>0.2781402590596293</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EPICE000_SQ005_</t>
+          <t>phase_plane_parameter_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2164936507052462</v>
+        <v>0.278113929736738</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Smo_Ent_AccYWaist_baseline</t>
+          <t>FRAGIRE05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2157726733759916</v>
+        <v>0.2760870257284713</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ste_cvT_baseline</t>
+          <t>EPICE000_SQ010_</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.21228653670191</v>
+        <v>0.2755832169999304</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SF3611_SQ002_</t>
+          <t>MFESCALE000_SQ008_</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2109059599593388</v>
+        <v>0.2699554477870696</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FRAGIRE15</t>
+          <t>HADS007</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2055872397867687</v>
+        <v>0.2612401248470695</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,11 +1168,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MFESCALE SCORE GLOBAL</t>
+          <t>MMSE05ATTETCALCUL_SQ004_</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2018818076728021</v>
+        <v>0.2593618623765246</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_YF_baseline</t>
+          <t>mean_value_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1995475023860848</v>
+        <v>0.257713685131603</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SPPB_06_07_Variation_Vitesse_Absolue</t>
+          <t>FROPCOM0016</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1978967785159589</v>
+        <v>0.2563470334651754</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ICOPE LOCOMOTION LEVER DE CHAISE NEGATIF</t>
+          <t>zero_crossing_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1978099950709427</v>
+        <v>0.255694138012414</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Smo_Ent_AccXWaist_baseline</t>
+          <t>SPPB9</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1962284141917429</v>
+        <v>0.2485418056922468</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FROPCOM0019</t>
+          <t>Smo_Ent_GyrYWaist_baseline</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1919552821964098</v>
+        <v>0.2344515708280398</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,11 +1246,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Smo_Ent_GyrXWaist_baseline</t>
+          <t>range_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.185257743577711</v>
+        <v>0.2318706778023502</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EXAMCLIN01</t>
+          <t>Sta_ROM_lML_baseline</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1841697095336699</v>
+        <v>0.2278927213565758</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_ML_YO_baseline</t>
+          <t>long_time_diffusion_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1808792322759529</v>
+        <v>0.2265894499512386</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.178299261684996</v>
+        <v>0.2263415283219723</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccXWaist_baseline</t>
+          <t>SF36-05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1761112726856402</v>
+        <v>0.224632378586653</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF36-06</t>
+          <t>long_time_scaling_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1741486301232664</v>
+        <v>0.2244002435391769</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ013_</t>
+          <t>short_time_scaling_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1738023300347901</v>
+        <v>0.2240699268966899</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_AP_YF_baseline</t>
+          <t>EPICE000_SQ011_</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1729554488167874</v>
+        <v>0.2229292858209951</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_ML_YF_baseline</t>
+          <t>frequency_quotient_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1722015853707383</v>
+        <v>0.2220438819501974</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HADS014</t>
+          <t>SF3603_SQ002_</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1708642465152688</v>
+        <v>0.2184556832334791</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VINICODEX0004_SQ009_</t>
+          <t>critical_time_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1692548908561393</v>
+        <v>0.2181677907645492</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>rms_AP_YF_baseline</t>
+          <t>Stu_RMS_aCCF_baseline</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1689842601594914</v>
+        <v>0.2178250844445171</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FROPCOM0005</t>
+          <t>Sta_Lyap_GyrZWaist_baseline</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1670210951151629</v>
+        <v>0.2154906331958483</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF3604_SQ003_</t>
+          <t>SPPB09 - COTATION</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.166509497581202</v>
+        <v>0.2129077274001122</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF3605_SQ002_</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1648729139940101</v>
+        <v>0.212290531394396</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SAPAS DE MORAN TROUBLE DE LA PERSONNALITE</t>
+          <t>Sta_Lyap_AccXWaist_baseline</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1638967356659813</v>
+        <v>0.21064361598003</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MMSE06RAPPEL_SQ001_</t>
+          <t>total_power_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.162661920320541</v>
+        <v>0.210500439411636</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,11 +1467,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_ML_YO_baseline</t>
+          <t>HADS008</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1600979602428143</v>
+        <v>0.2104569723337139</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>SF36-24</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1599916439925576</v>
+        <v>0.2103314343105688</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>HHIE01_SQ010_</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1591842263375604</v>
+        <v>0.2055431596969527</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,11 +1506,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF36-28</t>
+          <t>SCORE FROP COM SCREEN</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1590580652425359</v>
+        <v>0.2008064531981609</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>SF36-Emotional well-being</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1568652938534344</v>
+        <v>0.1986458677087464</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_AP_YO_baseline</t>
+          <t>SF36-Social functioning</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1557734295996516</v>
+        <v>0.1984660577583588</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Age a l inclusion</t>
+          <t>critical_time_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1544057438109052</v>
+        <v>0.1967078100969002</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S7_</t>
+          <t>FRAGIRE01_SQ001_</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1510364302530005</v>
+        <v>0.1961400617699123</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_ML_YF_baseline</t>
+          <t>SCORE FROP COM HORS AMTS SCORE FROPCOM0011</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1505256966651152</v>
+        <v>0.1940185870280619</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_ML_YF_baseline</t>
+          <t xml:space="preserve">SF36-Role limitations due to physical health </t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.147331139116582</v>
+        <v>0.1922422648000768</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mean_value_AP_YF_baseline</t>
+          <t>HADS TOTAL A</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1447723614001491</v>
+        <v>0.1914940606262273</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF36-Physical functioning</t>
+          <t>mean_frequency_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1439738128335873</v>
+        <v>0.1888295898596433</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mean_distance_Radius_YO_baseline</t>
+          <t>peak_velocity_neg_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1439052280366486</v>
+        <v>0.1872875760189991</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,11 +1636,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FROPCOM0021</t>
+          <t>mean_velocity_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1391099200486048</v>
+        <v>0.1869706103897468</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SF36-30</t>
+          <t>MFESCALE000_SQ006_</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1379655824314925</v>
+        <v>0.1829042094972455</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ002_</t>
+          <t>FROPCOM0002 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1373374758520284</v>
+        <v>0.1826992003158402</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SF3603_SQ007_</t>
+          <t>FRAGIRE07 CALCUL</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.1373354229581769</v>
+        <v>0.1813666872182564</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Stu_RMS_aAPF_baseline</t>
+          <t>SCORE ICOPE STEP1 REPERAGE GLOBAL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1370528609256844</v>
+        <v>0.179582455371103</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ007_</t>
+          <t>SF3611_SQ001_</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.13508863165902</v>
+        <v>0.1749046897522024</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Smo_Ent_GyrYWaist_baseline</t>
+          <t>FRAGIRE10-  COTATION</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1345670485509101</v>
+        <v>0.1745914209804041</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HADS001</t>
+          <t>long_time_diffusion_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1345218025887412</v>
+        <v>0.1700236387473241</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>mean_value_ML_YO_baseline</t>
+          <t>MNADEPISTAGED</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1327161173158264</v>
+        <v>0.1693917781110306</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ003_</t>
+          <t>SF36-23</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1325951956332851</v>
+        <v>0.16784369520242</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HHIE01_SQ003_</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.130996591416273</v>
+        <v>0.1654896261474594</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,11 +1779,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HADS011</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ002_</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1298615601467096</v>
+        <v>0.1608093726618741</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_AP_YO_baseline</t>
+          <t>peak_velocity_all_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1289126558393485</v>
+        <v>0.1599494949515128</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HADS TOTAL D</t>
+          <t>EXAMCLIN023</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1288851559091627</v>
+        <v>0.1599009960561979</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>leftHandV1_baseline</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1283677989305016</v>
+        <v>0.1550628287890866</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ste_FFTqgAP_LB_baseline</t>
+          <t>rms_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1250291536499609</v>
+        <v>0.1536839349674831</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>maximal_distance_Radius_YF_baseline</t>
+          <t>SF36-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1246981311714774</v>
+        <v>0.1504099308990484</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ003_</t>
+          <t>Ste_cvT_baseline</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1212079880403708</v>
+        <v>0.1482705236299874</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SF36-19</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1203118650988674</v>
+        <v>0.1474217087717729</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Patient bénéficiant de Lunettes de vue</t>
+          <t>SF3609_SQ006_</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1180160352055204</v>
+        <v>0.1440537707079409</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_AP_YO_baseline</t>
+          <t>FROPCOM0012_SQ002_</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1178312614904554</v>
+        <v>0.1433439429000376</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SCORE FROP COM HORS AMTS SCORE FROPCOM0011</t>
+          <t>total_power_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1165734785507392</v>
+        <v>0.1428322767750444</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EPICE000_SQ009_</t>
+          <t>SF36-01</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1158963307642296</v>
+        <v>0.1419593172094761</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FROPCOM0007 - COTATION QUESTION</t>
+          <t>Variance_Latérale_YO_baseline</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1158039079868042</v>
+        <v>0.1419366798680893</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>zero_crossing_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1142228144808892</v>
+        <v>0.1411333574656973</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FRAGIRE07</t>
+          <t>FROPCOM0005</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1141958500951356</v>
+        <v>0.1394663752157518</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ICOPE006 Trouble psychologique</t>
+          <t>zero_crossing_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1140273920700089</v>
+        <v>0.1394561143828945</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SCORE FROP COM AVEC AMTS_MMSE_sur_3_SCORE TOTAL FROPCOM</t>
+          <t>mean_distance_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1119709364016585</v>
+        <v>0.1389207898894422</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,11 +2000,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>rms_AP_YO_baseline</t>
+          <t>Age a l inclusion</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1114717768401539</v>
+        <v>0.1385154549674958</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ004_</t>
+          <t>SF3610</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1111588456411107</v>
+        <v>0.1359925776634527</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mean_distance_peak_Sway_Density_YF_baseline</t>
+          <t>mean_distance_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1104908086137123</v>
+        <v>0.1354416573237575</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>mean_distance_peak_Sway_Density_YO_baseline</t>
+          <t>mean_distance_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1100014380440011</v>
+        <v>0.1343175007533954</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_ML_YO_baseline</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ001_</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.109517208215772</v>
+        <v>0.1337104805734865</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,11 +2065,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ001_</t>
+          <t>FRAGIRE08</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1089163034324288</v>
+        <v>0.1319266442510732</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sta_Lyap_GyrXWaist_baseline</t>
+          <t>principal_sway_direction_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1086861223526534</v>
+        <v>0.1311158360696266</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>SF36-Pain</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1076245206259828</v>
+        <v>0.128657735544184</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>range_ML_YO_baseline</t>
+          <t>SAPASDEMORAN_SQ005_</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1075191507050008</v>
+        <v>0.1285358039451218</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>Spr_SwT_L_baseline</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1070548862983602</v>
+        <v>0.1280791022785264</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>SF3603_SQ008_</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1028086064901542</v>
+        <v>0.1280740683121952</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,11 +2143,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FROP COM INTERPRETATION</t>
+          <t>HADS TOTAL A Pathologique_sup_ou_egal_11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1012996710157539</v>
+        <v>0.1279576585172449</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ste_P2_aCC_LB2_baseline</t>
+          <t>FRAGIRE04</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.1006190241037302</v>
+        <v>0.126740012732039</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SPPB04 - COTATION</t>
+          <t>FROPCOM0007_SQ009_</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1004309174925533</v>
+        <v>0.126185692381727</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>SAPASDEMORAN_SQ001_</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.09949902671655309</v>
+        <v>0.1251792488344195</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,11 +2195,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FRAGIRE10-  COTATION</t>
+          <t>Sta_Att_aAP_baseline</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.09857653394395695</v>
+        <v>0.1249071763749453</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_ML_YO_baseline</t>
+          <t>FRAGIRE09 CALCUL</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.09830088462473162</v>
+        <v>0.1235020405527745</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>mean_distance_ML_YF_baseline</t>
+          <t>SF36-21</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.09814204298917385</v>
+        <v>0.1225899165623739</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>maximal_distance_AP_YF_baseline</t>
+          <t>range_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.09772221741180839</v>
+        <v>0.1216022998741494</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>maximal_distance_Radius_YO_baseline</t>
+          <t>SF3609_SQ002_</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0974964398504716</v>
+        <v>0.1215388701226084</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_ML_YF_baseline</t>
+          <t>FROPCOM0007_SQ008_</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.09718134467242223</v>
+        <v>0.1206757639404401</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>VINICODEX0004_SQ006_</t>
+          <t>mean_value_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.09692084749198329</v>
+        <v>0.1203528756304646</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FRAGIRE SCORE TOTAL</t>
+          <t>rightHandV2_baseline</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.09663882823043905</v>
+        <v>0.1202706074010182</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>range_AP_YO_baseline</t>
+          <t>coefficient_sway_direction_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.09660010972221539</v>
+        <v>0.1189828884290499</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,11 +2312,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_AP_YO_baseline</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.09530501329310749</v>
+        <v>0.1167558829614694</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SF3604_SQ004_</t>
+          <t>confidence_ellipse_area_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.09527096502009944</v>
+        <v>0.1165963226791168</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,11 +2338,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_ML_YO_baseline</t>
+          <t>RoliTronc_baseline</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.09512833952425502</v>
+        <v>0.1161935644646617</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SF3609_SQ008_</t>
+          <t>power_frequency_95_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.09502833738807551</v>
+        <v>0.115891466898491</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ002_</t>
+          <t>FROPCOM0022 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.09483041852960851</v>
+        <v>0.1156769606464464</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_ML_YF_baseline</t>
+          <t>Sta_Lyap_GyrYWaist_baseline</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0944382596220449</v>
+        <v>0.1151699609214817</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">SF36-Role limitations due to physical health </t>
+          <t>S36-25</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.09385267243014711</v>
+        <v>0.1142859895523553</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HADS013</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.09288530559928433</v>
+        <v>0.1122471279344565</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ001_</t>
+          <t>SF3603_SQ007_</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.09280901980209248</v>
+        <v>0.1112953927100055</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,11 +2429,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_AP_YO_baseline</t>
+          <t>SPPB_06_07_Variation_Vitesse_Relative</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.09276592948976821</v>
+        <v>0.1110901070548911</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>rms_ML_YO_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.0924325127795064</v>
+        <v>0.1092794583232093</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,11 +2455,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MMSE06RAPPEL_SQ002_</t>
+          <t>HHIE01_SQ009_</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.09235255581546457</v>
+        <v>0.1065644949003709</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2468,11 +2468,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ste_cvSwT_R_baseline</t>
+          <t>SF36-18</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.09186243702950181</v>
+        <v>0.1054957573617211</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HHIE01_SQ006_</t>
+          <t>LFS_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.09130650619561108</v>
+        <v>0.1047657480189645</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Surface_YO_baseline</t>
+          <t>HADS003</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.09097826400710818</v>
+        <v>0.1028201515654556</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S5_</t>
+          <t>SPPB04 - COTATION</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.09017511125185479</v>
+        <v>0.1009296579120258</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_ML_YO_baseline</t>
+          <t>STADE FRAGILITE SELON FRAGIRE</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.09002639180304815</v>
+        <v>0.09956852166085424</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SF36-Role limitations due to emotional problems</t>
+          <t>SCORE TOTAL STI</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.08970085794199786</v>
+        <v>0.09911771409854581</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_ML_YF_baseline</t>
+          <t>SF36-26</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0894594750922907</v>
+        <v>0.09854028093926499</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Smo_Ent_GyrZWaist_baseline</t>
+          <t>range_ratio_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.08914670363647559</v>
+        <v>0.09835197327408723</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>phase_plane_parameter_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.08829969285993462</v>
+        <v>0.09793019004235624</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SF3609_SQ001_</t>
+          <t>Sta_Att_gCC_baseline</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.08785554621207922</v>
+        <v>0.09761281575500165</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_AP_YF_baseline</t>
+          <t>SF3609_SQ003_</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.08713087171009085</v>
+        <v>0.09707381275858258</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,11 +2611,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SF36-24</t>
+          <t>EXAMCLIN01</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.08618429309965746</v>
+        <v>0.09700721811470564</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SF36-31</t>
+          <t>SF3609_SQ004_</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.08610926320363227</v>
+        <v>0.09629442090203064</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vitesse_Moyenne_YF_baseline</t>
+          <t>FRAGIRE SCORE TOTAL</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.08495317355455655</v>
+        <v>0.09250670412529849</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SF36-13</t>
+          <t>Spr_SwT_R_baseline</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.08388984851590382</v>
+        <v>0.09250110191154452</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FROPCOM0016</t>
+          <t>power_frequency_50_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0836025710149251</v>
+        <v>0.09241602969164574</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>mean_frequency_AP_YO_baseline</t>
+          <t>SF36-32</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0829291554933517</v>
+        <v>0.0915948492632013</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,11 +2689,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HADS010</t>
+          <t>mean_distance_peak_Sway_Density_YF_baseline</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.08242280860430512</v>
+        <v>0.09086798855014463</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HHIE01_SQ009_</t>
+          <t>SF3603_SQ006_</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.08219391046231021</v>
+        <v>0.09086520026717172</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ006_</t>
+          <t>MFESCALE000_SQ005_</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.08214867186440146</v>
+        <v>0.09036750392246039</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,11 +2728,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Smo_ROM_anML_baseline</t>
+          <t>SF3609_SQ009_</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.08113469072237074</v>
+        <v>0.08985328025934103</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,11 +2741,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MMSE08SCORETOTAL</t>
+          <t>power_frequency_50_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.08081277314583332</v>
+        <v>0.08984500972479298</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SF36-Social functioning</t>
+          <t>mean_velocity_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.08077935074248906</v>
+        <v>0.08978776927043065</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2767,11 +2767,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_YO_baseline</t>
+          <t>critical_time_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.08045596141147877</v>
+        <v>0.08974802454776437</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2780,11 +2780,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_ML_YF_baseline</t>
+          <t>SAPASDEMORAN_SQ003_</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.08035096201409871</v>
+        <v>0.08970579406214631</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,11 +2793,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SF36-27</t>
+          <t>short_time_diffusion_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.08034051685277308</v>
+        <v>0.08890775836564384</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,11 +2806,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>EPICE000_SQ008_</t>
+          <t>rms_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.07915836320713288</v>
+        <v>0.08890646964987552</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,11 +2819,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Spr_SteT_baseline</t>
+          <t>maximal_distance_Radius_YF_baseline</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.07868229831524805</v>
+        <v>0.08866695093395247</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SF36-Pain</t>
+          <t>FRAGIRE13</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.07857964912671193</v>
+        <v>0.0873323760742216</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SF3607</t>
+          <t>range_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.07839578018041385</v>
+        <v>0.08708402990886223</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_AND_AP_YF_baseline</t>
+          <t>maximal_distance_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.07833468765559708</v>
+        <v>0.08687000056848918</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FRAGIRE01_SQ001_</t>
+          <t>ICOPE0051_SQ002_</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.07755416466728818</v>
+        <v>0.086423854111047</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>maximal_distance_Radius_YO_baseline</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0764053096654857</v>
+        <v>0.08638507346506838</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SF36-23</t>
+          <t>frequency_quotient_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.07611394303279834</v>
+        <v>0.08574734236004544</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2910,11 +2910,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>principal_sway_direction_ML_AND_AP_YO_baseline</t>
+          <t>FROPCOM0001</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.07559728573849055</v>
+        <v>0.08574249012829499</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2923,11 +2923,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>VINCQ08</t>
+          <t>HADS011</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.074932149620132</v>
+        <v>0.08531563623477445</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FRAGIRE12 -  COTATION</t>
+          <t>FRAGIRE CALCUL PONDERATION</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.07362342912614926</v>
+        <v>0.0851448023835874</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SF36-21</t>
+          <t>HADS014</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.07360496262634515</v>
+        <v>0.08483297818653103</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FROPCOM0001</t>
+          <t>Smo_ROM_anML_baseline</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.07354448275844595</v>
+        <v>0.08431492964732611</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ003_</t>
+          <t>mean_peak_Sway_Density_YO_baseline</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.07337801957974589</v>
+        <v>0.0838564560920437</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HADS008</t>
+          <t>VINICODEX0004_SQ010_</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.07269588263192481</v>
+        <v>0.08303437345588795</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ012_</t>
+          <t>range_ratio_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.07198253192512731</v>
+        <v>0.08157374896043884</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ018_</t>
+          <t>short_time_diffusion_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.07168042928960426</v>
+        <v>0.08112375794366941</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SF36-11</t>
+          <t>long_time_scaling_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.07134605541336142</v>
+        <v>0.08055193534055093</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MMSE06LANGAGE4_SQ001_</t>
+          <t>critical_displacement_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.0709412448238354</v>
+        <v>0.08015244987386357</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>mean_peak_Sway_Density_YF_baseline</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ004_</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0702384349792862</v>
+        <v>0.07929393619193835</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Spr_UtrT_baseline</t>
+          <t>peak_velocity_pos_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.0690385857803168</v>
+        <v>0.07927829629670427</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SF36-17</t>
+          <t>SF36-27</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.06883629361127239</v>
+        <v>0.07885261827000775</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sta_Att_gML_baseline</t>
+          <t>SF36-30</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.06813879233826446</v>
+        <v>0.07796312353427992</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HADS007</t>
+          <t>SCORE EPICE GLOBAL</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.06715000220013706</v>
+        <v>0.07713098584212554</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FROPCOM0001 SCORE</t>
+          <t>SPPB_06_07_Variation_Vitesse_Absolue</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.06608200118603617</v>
+        <v>0.07646489564725352</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>fractal_dimension_ML_AND_AP_YO_baseline</t>
+          <t>energy_content_05_2_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.06578404442842031</v>
+        <v>0.07436076586867825</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ005_</t>
+          <t>FRAGIRE17 -  COTATION</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.06539402123505351</v>
+        <v>0.07354293235909679</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Sta_Lyap_AccYWaist_baseline</t>
+          <t>frequency_mode_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.06483530463170024</v>
+        <v>0.07336101005494754</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SwingMeanStrideDuration_baseline</t>
+          <t>SF36-36</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.06380253740068308</v>
+        <v>0.07270041510350149</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,11 +3183,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SCORE FROP COM SCREEN</t>
+          <t>HADS010</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.06377326093802201</v>
+        <v>0.07262861887241091</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ004_</t>
+          <t>HADS TOTAL D</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.06367718191556143</v>
+        <v>0.07238549641989848</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Sta_Att_aML_baseline</t>
+          <t>HHIE01_SQ002_</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.06367533689645533</v>
+        <v>0.0722245076633361</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,11 +3222,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SF36-12</t>
+          <t>SF36-09</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.06364994182771776</v>
+        <v>0.07116945586440619</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SF3609_SQ005_</t>
+          <t>MMSE06RAPPEL_SQ003_</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.06364471827076765</v>
+        <v>0.07116099468551285</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ020_</t>
+          <t>FRAGIRE12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.06323696566876041</v>
+        <v>0.07069004346057824</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sway_area_per_second_ML_AND_AP_YO_baseline</t>
+          <t>range_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.06259517622058608</v>
+        <v>0.07048668103344835</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Sta_Att_gAP_baseline</t>
+          <t>EXAMCLIN022</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.06254561021603008</v>
+        <v>0.07026635789962064</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>FRAGIRE09 CALCUL</t>
+          <t>MMSE06RAPPEL_SQ002_</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.06245018992351088</v>
+        <v>0.06981070627912792</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HHIE01_SQ004_</t>
+          <t>SF36-08</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.06208607657926803</v>
+        <v>0.06942125438900187</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>maximal_distance_ML_YF_baseline</t>
+          <t>FRAGIRE15 CALCUL</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.06205948927123314</v>
+        <v>0.06731147294360303</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SF3603_SQ001_</t>
+          <t>Stu_L_baseline</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0611434467933431</v>
+        <v>0.06579229910888033</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SF3603_SQ004_</t>
+          <t>SF36-Physical functioning</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.06095217742238639</v>
+        <v>0.0643121794615385</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>mean_distance_ML_YO_baseline</t>
+          <t>FRAGIRE12 -  COTATION</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.06074069478843259</v>
+        <v>0.0641560154354055</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>EPICE000_SQ006_</t>
+          <t>FROPCOM0007_SQ012_</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.06065920240696245</v>
+        <v>0.06415599129758198</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ004_</t>
+          <t>power_frequency_95_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.06039952247748738</v>
+        <v>0.06256829394585797</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FRAGIRE17</t>
+          <t>FRAGIRE13 -  COTATION</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.05956101868647481</v>
+        <v>0.06226617538768953</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>Ste_FFTqgCC_LB_baseline</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.05912169682682678</v>
+        <v>0.06192115283887035</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Score_YO_baseline</t>
+          <t>peak_velocity_pos_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.05887244724338471</v>
+        <v>0.06162653071308046</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ004_</t>
+          <t>Syn_ffT_baseline</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.05833221180727304</v>
+        <v>0.06150170589501674</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_AP_YO_baseline</t>
+          <t>Ste_FFTqaML_LB_baseline</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.05773333307500324</v>
+        <v>0.06143796159326331</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>EPICE000_SQ001_</t>
+          <t>Sym_P1P2_aAP_LB2_baseline</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0574921933187054</v>
+        <v>0.06123780377786042</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_AP_YF_baseline</t>
+          <t>SF3611_SQ002_</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.05723084280448305</v>
+        <v>0.06022990853581482</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3482,11 +3482,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>power_frequency_95_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>SF36-31</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.05630865855838296</v>
+        <v>0.05927896503091278</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SF36-32</t>
+          <t>long_time_scaling_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.05537664876149189</v>
+        <v>0.05857000722854862</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SF3609_SQ009_</t>
+          <t>FROPCOM0002</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.05520448687526946</v>
+        <v>0.05841667227132826</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,11 +3521,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>FRAGIRE17 -  COTATION</t>
+          <t>EPICE000_SQ001_</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.05480528050800942</v>
+        <v>0.05805957523649054</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3534,11 +3534,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>HHIE01_SQ010_</t>
+          <t>power_frequency_50_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0544526509145881</v>
+        <v>0.05722833684770347</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Ste_FFTqgCC_LB_baseline</t>
+          <t>ACUITEVISUELLE01_SQ005_</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.05381856746700055</v>
+        <v>0.05709436253130661</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>coefficient_sway_direction_ML_AND_AP_YO_baseline</t>
+          <t>fractal_dimension_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.05255933922364334</v>
+        <v>0.05668581407696645</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>critical_displacement_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.05241836147349713</v>
+        <v>0.05666148228787787</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>FROPCOM0007_SQ004_</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.052229594367225</v>
+        <v>0.05655635270486353</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3599,11 +3599,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>range_ratio_ML_AND_AP_YO_baseline</t>
+          <t>critical_time_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.05170231670748273</v>
+        <v>0.05594278131533709</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -3612,11 +3612,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>fractal_dimension_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.05155419322191972</v>
+        <v>0.0555098869072222</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3625,11 +3625,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SF36-04</t>
+          <t>Syn_dsT_baseline</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.05153268158841678</v>
+        <v>0.05549121867138014</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Sym_HRaAP_LB_baseline</t>
+          <t>SF36-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.05123899693035498</v>
+        <v>0.05499794310834237</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3651,11 +3651,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SF36-16</t>
+          <t>short_time_scaling_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.04941475676764105</v>
+        <v>0.05452183180458584</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -3664,11 +3664,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FROPCOM0017 - COTATION QUESTION</t>
+          <t>range_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.04940690846374785</v>
+        <v>0.05437365727937886</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ005_</t>
+          <t>mean_velocity_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0491650799428159</v>
+        <v>0.05393184822532849</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>centroid_frequency_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>SF3609_SQ001_</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.04914741204524226</v>
+        <v>0.05384241132296317</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3703,11 +3703,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>HHIE02</t>
+          <t>EPICE000_SQ006_</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.04852860805914925</v>
+        <v>0.0532691556330348</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -3716,11 +3716,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>HADS TOTAL A</t>
+          <t>coefficient_sway_direction_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.04701889079433692</v>
+        <v>0.0532025597040021</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3729,11 +3729,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>planar_deviation_ML_AND_AP_YF_baseline</t>
+          <t>FROPCOM00016 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.04635894290025162</v>
+        <v>0.05293593774144151</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>MFESCALE Dimension activites d exterieur  items_10_14</t>
+          <t>mean_value_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.04626325954955075</v>
+        <v>0.05232139664836261</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_ML_YO_baseline</t>
+          <t>SF3605_SQ001_</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.04600161554120739</v>
+        <v>0.05112695858740531</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Syn_ffT_baseline</t>
+          <t>SF26-20</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.0451031444539978</v>
+        <v>0.05098341655456377</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MNADEPISTAGESCORE</t>
+          <t>rms_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.04475421174945313</v>
+        <v>0.05097867046609222</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SF36-22</t>
+          <t>SF36-14</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.04453021877870619</v>
+        <v>0.05082459069624604</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3807,11 +3807,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>FROPCOM0008-1 - COTATION QUESTION</t>
+          <t>ACUITEVISUELLE01_SQ003_</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.04387281035714406</v>
+        <v>0.0505377762738304</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3820,11 +3820,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SCORE ICOPE STEP1 REPERAGE GLOBAL</t>
+          <t>FRAGIRE17</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.04368273096327834</v>
+        <v>0.05044219951490585</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3833,11 +3833,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_ML_YO_baseline</t>
+          <t>range_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.04358242771878659</v>
+        <v>0.0503863942344834</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SCORE SAPAS DE MORAN</t>
+          <t>MFESCALE000_SQ010_</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.04317555984385496</v>
+        <v>0.04942872114151727</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -3859,11 +3859,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>HHIE01_SQ008_</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.04304157232232095</v>
+        <v>0.04923567815519038</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Score_YF_baseline</t>
+          <t>FROPCOM0017 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.04299439882294471</v>
+        <v>0.04845979247751642</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>fractal_dimension_ML_AND_AP_YF_baseline</t>
+          <t>SF3604_SQ001_</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.04223711794222845</v>
+        <v>0.04811155707665942</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>frequency_quotient_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>AvgSpeed_baseline</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.04221655246928149</v>
+        <v>0.04809009912502054</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3911,11 +3911,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Interpretation CODEX</t>
+          <t>MFESCALE000_SQ003_</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.04215965814831683</v>
+        <v>0.04796531357180091</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -3924,11 +3924,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_AP_YF_baseline</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.04133084654934936</v>
+        <v>0.0478847192766499</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Vitesse_Moyenne_YO_baseline</t>
+          <t>frequency_mode_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.0412870184253606</v>
+        <v>0.04787588422554026</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>principal_sway_direction_ML_AND_AP_YF_baseline</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.04120718374283876</v>
+        <v>0.04784633773853803</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -3963,11 +3963,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Surface_YF_baseline</t>
+          <t>frequency_mode_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.04116123937085815</v>
+        <v>0.04779880230229716</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SF36-09</t>
+          <t>FROPCOM0007_SQ007_</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.04080594097696912</v>
+        <v>0.04757073492914191</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>FRAGIRE 08 CALCUL</t>
+          <t>FROPCOM0012 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.04070958479531953</v>
+        <v>0.04731291413283737</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -4002,11 +4002,11 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SF36-Emotional well-being</t>
+          <t>SwingMeanStrideDuration_baseline</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.03951079075856704</v>
+        <v>0.04667890006750273</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -4015,11 +4015,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ005_</t>
+          <t>FRAGIRE11</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.03921968227307593</v>
+        <v>0.0464762082641361</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>rms_Radius_YF_baseline</t>
+          <t>MFESCALE000_SQ011_</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.03912233196717685</v>
+        <v>0.04601621164401999</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>range_ML_YF_baseline</t>
+          <t>HADS005</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.03899725977411426</v>
+        <v>0.0456456293270813</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>mean_distance_peak_Sway_Density_YO_baseline</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.03862015313700571</v>
+        <v>0.04441879774745065</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -4067,11 +4067,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Nombre de chutes suivi mensuel pendant 6 mois</t>
+          <t>zero_crossing_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.03836748620849816</v>
+        <v>0.04431900356799359</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -4080,11 +4080,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Sta_Att_gCC_baseline</t>
+          <t>ACUITEVISUELLE01_SQ002_</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.03742235117615603</v>
+        <v>0.04403163762804561</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4093,11 +4093,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>range_AP_YF_baseline</t>
+          <t>total_power_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.03732055512383155</v>
+        <v>0.04346492166213198</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -4106,11 +4106,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>maximal_distance_ML_YO_baseline</t>
+          <t>Ste_FFTqaCC_LB_baseline</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.03664880257388362</v>
+        <v>0.04307755887452104</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>Sta_Lyap_GyrXWaist_baseline</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.03663022485050297</v>
+        <v>0.04216246185510559</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -4132,11 +4132,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>HADS TOTAL D Pathologique_sup_ou_egal_11</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.03609642277756208</v>
+        <v>0.04200961096991779</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SF36-08</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.03602005343939718</v>
+        <v>0.04114430176039793</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FRAGIRE04</t>
+          <t>MFESCALE000_SQ004_</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.03558632448926913</v>
+        <v>0.0406225025465785</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -4171,11 +4171,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ002_</t>
+          <t>Score_YF_baseline</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.03550713599329487</v>
+        <v>0.04046545605819463</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -4184,11 +4184,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MMSE07PRAXIES_SQ001_</t>
+          <t>SF36-28</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.03511012435649331</v>
+        <v>0.04022035877069525</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RoliTronc_baseline</t>
+          <t>SF3603_SQ004_</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.03499950540097553</v>
+        <v>0.03965439817286368</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -4210,11 +4210,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Sta_RMS_aML_LB_baseline</t>
+          <t>FRAGIRE05 CALCUL</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.03489071823781497</v>
+        <v>0.03961301349325153</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>critical_displacement_Diffusion_ML_YO_baseline</t>
+          <t>Stu_turnN_baseline</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.03487721575439723</v>
+        <v>0.03929438342640573</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>FROPCOM0009</t>
+          <t>ACUITEVISUELLE01_SQ006_</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.03475520204067837</v>
+        <v>0.03898019034266492</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_AP_YF_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.03452888034131155</v>
+        <v>0.03890114400240443</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>MFESCALE Dimension activites d interieur items_1_9</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.03445855518987447</v>
+        <v>0.03847735140884199</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -4275,11 +4275,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SF3603_SQ002_</t>
+          <t>mean_distance_Radius_YF_baseline</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.03358120718316334</v>
+        <v>0.03819119134276339</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>SF36-07</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.03343763113228122</v>
+        <v>0.03724480529168291</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Ste_P2_aAP_LB2_baseline</t>
+          <t>Ste_FFTqgML_LB_baseline</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.03277886324320416</v>
+        <v>0.03691680209896153</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SF36-02</t>
+          <t>SAPASDEMORAN_SQ008_</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.03268751476942361</v>
+        <v>0.03667376461423268</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>FRAGIRE16 CALCUL</t>
+          <t>frequency_dispersion_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.03258415664565462</v>
+        <v>0.03665923669448591</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>FRAGIRE02 CALCUL</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.03223816601377483</v>
+        <v>0.0362987036075435</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4353,11 +4353,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>FROPCOM0022 - COTATION QUESTION</t>
+          <t>Smo_Ent_GyrZWaist_baseline</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.0314454647428186</v>
+        <v>0.03624803184857684</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -4366,11 +4366,11 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>EPICE000_SQ002_</t>
+          <t>frequency_quotient_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.03117131512146479</v>
+        <v>0.03622365295907792</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Sym_P1P2_aCC_LB2_baseline</t>
+          <t>VINICODEX0004_SQ006_</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.03114649338172453</v>
+        <v>0.03599695107392481</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_ML_YO_baseline</t>
+          <t>FROPCOM0009</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.03081028032117857</v>
+        <v>0.0354938351601233</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_ML_YF_baseline</t>
+          <t>DoubleStance_baseline</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.03078439741817461</v>
+        <v>0.03538969486887454</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,11 +4418,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>VINICODEX0004_SQ010_</t>
+          <t>SF36-12</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.03069746655151078</v>
+        <v>0.03513994743078575</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>long_time_scaling_Diffusion_AP_YF_baseline</t>
+          <t>FRAGIRE15</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.03026900556795204</v>
+        <v>0.03493913959307433</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Sta_Lyap_GyrYWaist_baseline</t>
+          <t>MNADEPISTAGEA</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.03026427373055596</v>
+        <v>0.03472954624255196</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ014_</t>
+          <t>SCORE SAPAS DE MORAN</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.03019632437053924</v>
+        <v>0.0344815420264262</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>HHIE01_SQ002_</t>
+          <t>MMSE08SCORETOTAL</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.02994581529948435</v>
+        <v>0.03442795482429485</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,11 +4483,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>long_time_diffusion_Diffusion_AP_YO_baseline</t>
+          <t>Score_YO_baseline</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.02977733478371401</v>
+        <v>0.0343735953444348</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -4496,11 +4496,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ006_</t>
+          <t>short_time_diffusion_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.0296086888896718</v>
+        <v>0.03265308453223052</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -4509,11 +4509,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S1_</t>
+          <t>FROPCOM0021</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.02912825200655116</v>
+        <v>0.03263583404344665</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4522,11 +4522,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ICOPE0051_SQ001_</t>
+          <t>SAPASDEMORAN_SQ006_</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.0290543343116271</v>
+        <v>0.03164373860105218</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -4535,11 +4535,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SF3605_SQ003_</t>
+          <t>phase_plane_parameter_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.0288163882714265</v>
+        <v>0.031262753674792</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4548,11 +4548,11 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ017_</t>
+          <t>ICOPE006_SQ001_</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.02870705346303233</v>
+        <v>0.03113837588865195</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SF3609_SQ006_</t>
+          <t>MFESCALE000_SQ002_</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.02823561853185269</v>
+        <v>0.03112267412234912</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ010_</t>
+          <t>MMSE06RAPPEL_SQ001_</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.02727770711968136</v>
+        <v>0.03107860518105317</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>FROPCOM0005 - COTATION QUESTION</t>
+          <t>long_time_scaling_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.02683225128955924</v>
+        <v>0.03095000562761253</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4600,11 +4600,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>FROPCOM0007_SQ024_</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.02648431240104061</v>
+        <v>0.03090493777329344</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>FRAGIRE11</t>
+          <t>FRAGIRE16 CALCUL</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.02637579763555394</v>
+        <v>0.03065818352500677</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,11 +4626,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MNADEPISTAGEB</t>
+          <t>maximal_distance_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.0262368710096017</v>
+        <v>0.03012558658698915</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -4639,11 +4639,11 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SF36-35</t>
+          <t>SF36-Role limitations due to emotional problems</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.02613884608618206</v>
+        <v>0.02972788296523214</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4652,11 +4652,11 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SF36-10</t>
+          <t>ACUITEVISUELLE01_SQ001_</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.02576343364017271</v>
+        <v>0.02938192252203346</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ012_</t>
+          <t>SF3606</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.02554909360935356</v>
+        <v>0.02865069641758885</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -4678,11 +4678,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>CycleVariability_baseline</t>
+          <t>FROPCOM0017</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.02522905423854525</v>
+        <v>0.0285825376305435</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SF3605_SQ001_</t>
+          <t>HHIE02</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.02487009429874022</v>
+        <v>0.02811491446793319</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4704,11 +4704,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SF3603_SQ003_</t>
+          <t>SF36-11</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.02454753316963483</v>
+        <v>0.02547232578260366</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -4717,11 +4717,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ001_</t>
+          <t>SF36-10</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.02436902176982363</v>
+        <v>0.02546029860228877</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4730,11 +4730,11 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>FRAGIRE07 CALCUL</t>
+          <t>Sway_Density_YF_baseline</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.02421905442627525</v>
+        <v>0.02530707462158025</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FROPCOM0025</t>
+          <t>HHIE01_SQ003_</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.02387697502829995</v>
+        <v>0.0246823645796199</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4756,11 +4756,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SF36-33</t>
+          <t>Sym_HRaAP_LB_baseline</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.02345546258666556</v>
+        <v>0.02383469592345573</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_AP_YF_baseline</t>
+          <t>FRAGIRE02</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.02345228098120937</v>
+        <v>0.02370321527521947</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>HADS TOTAL A Pathologique_sup_ou_egal_11</t>
+          <t>ACUITEVISUELLE01_SQ004_</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.02326472174821458</v>
+        <v>0.02350769631859425</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,11 +4795,11 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_AP_YF_baseline</t>
+          <t>FROPCOM0007 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.02322142387464407</v>
+        <v>0.02318500889123486</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4808,11 +4808,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>EPICE000_SQ011_</t>
+          <t>HADS002</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.02283270452200479</v>
+        <v>0.02268034944245243</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4821,11 +4821,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>FROPCOM0002 - COTATION QUESTION</t>
+          <t>short_time_scaling_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.02231734460018404</v>
+        <v>0.02227008370991839</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>mean_value_AP_YO_baseline</t>
+          <t>energy_content_below_05_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0221849813911125</v>
+        <v>0.0222006028810351</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>MMSE05ATTETCALCUL_SQ003_</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.02204044841437898</v>
+        <v>0.02217371295404002</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ACUITEVISUELLE01_SQ001_</t>
+          <t>confidence_ellipse_area_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.02199684111569018</v>
+        <v>0.02158956553571749</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,11 +4873,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>EPICE000_SQ010_</t>
+          <t>Nombre de chutes suivi mensuel pendant 6 mois</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.02138295856732479</v>
+        <v>0.0214655457457966</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4886,11 +4886,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FROPCOM0006 - COTATION QUESTION</t>
+          <t>SF3609_SQ005_</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.02137098469888312</v>
+        <v>0.02103854092382812</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,11 +4899,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_AND_AP_YO_baseline</t>
+          <t>FROPCOM0023</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.02074042788501312</v>
+        <v>0.02079227419449802</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FROPCOM0026_SQ001_</t>
+          <t>MFESCALE000_SQ014_</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.02032548184342528</v>
+        <v>0.02059276552231635</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ003_</t>
+          <t>mean_distance_Radius_YO_baseline</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.02031580818029717</v>
+        <v>0.02048277013212369</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4938,11 +4938,11 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>peak_velocity_all_SPD_AP_YO_baseline</t>
+          <t>long_time_diffusion_Diffusion_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.02025022080881892</v>
+        <v>0.02039943153213838</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4951,11 +4951,11 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>mean_value_ML_YF_baseline</t>
+          <t>centroid_frequency_Power_Spectrum_Density_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.02008150811106294</v>
+        <v>0.01960128798254963</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4964,11 +4964,11 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SF36-18</t>
+          <t>frequency_mode_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.02000237248279792</v>
+        <v>0.0191028348644178</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4977,11 +4977,11 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>FRAGIRE06TEST1_SQ001_SQ001_</t>
+          <t>mean_frequency_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.01980553338331557</v>
+        <v>0.01863995847865507</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Sym_HRaCC_LB_baseline</t>
+          <t>HHIE01_SQ004_</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.01958815071689052</v>
+        <v>0.01829837935463618</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,11 +5003,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Ste_FFTqaML_LB_baseline</t>
+          <t>Sta_RMS_gAP_LB_baseline</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.01941056554666377</v>
+        <v>0.01757324357583213</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>short_time_diffusion_Diffusion_ML_YF_baseline</t>
+          <t>Vitesse_Moyenne_YO_baseline</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.01932144611925451</v>
+        <v>0.01700488473906038</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>FROPCOM0008_SQ001_</t>
+          <t>FRAGIRE 08 CALCUL</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.01921120594088813</v>
+        <v>0.01662227585225519</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ015_</t>
+          <t>FROPCOM0006 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.01892467536517149</v>
+        <v>0.01659854010022506</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5055,11 +5055,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Sway_Density_YO_baseline</t>
+          <t>SF3604_SQ002_</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.01877987283720052</v>
+        <v>0.01614590866963753</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MMSE05ATTETCALCUL_SQ002_</t>
+          <t>MFESCALE000_SQ001_</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.01866711382634601</v>
+        <v>0.01492889611861242</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SF3611_SQ001_</t>
+          <t>FROPCOM0019</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.01803787370106352</v>
+        <v>0.01487904476485812</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Ste_FFTqaCC_LB_baseline</t>
+          <t>Spr_UtrT_baseline</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.01801074687342592</v>
+        <v>0.01486410059858541</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>rms_Radius_YO_baseline</t>
+          <t>Surface_YF_baseline</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.01794544808689975</v>
+        <v>0.01485531905841518</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,11 +5120,11 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>peak_velocity_neg_SPD_AP_YO_baseline</t>
+          <t>Spr_SteT_baseline</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.01779288454499993</v>
+        <v>0.0148046882109257</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SF36-14</t>
+          <t>mean_frequency_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.0177533714067332</v>
+        <v>0.01456748332478565</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ016_</t>
+          <t>FRAGIRE04 CALCUL</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.01770280143331468</v>
+        <v>0.01413305634051452</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,11 +5159,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MMSE06LANGAGE1_SQ003_</t>
+          <t>short_time_scaling_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.01762710749652743</v>
+        <v>0.01401387728228691</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5172,11 +5172,11 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ICOPE001</t>
+          <t>mean_peak_Sway_Density_YF_baseline</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.01743671291292575</v>
+        <v>0.01381596876575849</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>mean_distance_AP_YF_baseline</t>
+          <t>VINICODEX002_SQ003_</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.01716819508698106</v>
+        <v>0.01374673747346209</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,11 +5198,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ007_</t>
+          <t>HADS001</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.01658031086128355</v>
+        <v>0.01336753997451335</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ008_</t>
+          <t>Ste_FFTqaAP_LB_baseline</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.01656436922096131</v>
+        <v>0.01325301791025445</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,11 +5224,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SF3603_SQ006_</t>
+          <t>LFS_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.0165595434025971</v>
+        <v>0.01315953838166524</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MNADEPISTAGED</t>
+          <t>HHIE01_SQ005_</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.01630594295307396</v>
+        <v>0.01283030162958113</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MNADEPISTAGEA</t>
+          <t>EPICE000_SQ005_</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.01585359388432179</v>
+        <v>0.01272519531644417</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -5263,11 +5263,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FRAGIRE15 CALCUL</t>
+          <t>Surface_YO_baseline</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.01579679364900789</v>
+        <v>0.01233429029220848</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -5276,11 +5276,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SF3604_SQ002_</t>
+          <t>FROPCOM0005 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.01561367435422925</v>
+        <v>0.01172439736665441</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>EXAMCLIN023</t>
+          <t>SF3603_SQ009_</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.01525139373925138</v>
+        <v>0.01158869124986211</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>HADS012</t>
+          <t>SF3603_SQ010_</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.01506354432180726</v>
+        <v>0.0115829685082975</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>maximal_distance_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.01476088197620847</v>
+        <v>0.01138394843607582</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Stu_L_baseline</t>
+          <t>MFESCALE000_SQ007_</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.0146639303511011</v>
+        <v>0.01106871948875476</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ003_</t>
+          <t>Sway_Density_YO_baseline</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.01451104708869485</v>
+        <v>0.01102442878995125</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,11 +5354,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_AND_AP_YF_baseline</t>
+          <t>Sta_Lyap_AccYWaist_baseline</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.01406711314391882</v>
+        <v>0.01101058228234331</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5367,11 +5367,11 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>HADS004</t>
+          <t>MMSE06LANGAGE4_SQ001_</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.01368774873265443</v>
+        <v>0.0103214458344616</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5380,11 +5380,11 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Variance_Latérale_YF_baseline</t>
+          <t>FROPCOM0013</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.01344265605346894</v>
+        <v>0.01006314535610407</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -5393,11 +5393,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>FRAGIRE05</t>
+          <t>FROPCOM0001 SCORE</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.0128435839944647</v>
+        <v>0.01003072907448703</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -5406,11 +5406,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_YF_baseline</t>
+          <t>Interpretation CODEX</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.01176468865682258</v>
+        <v>0.00987392503013804</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5419,11 +5419,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>FROPCOM0012 - COTATION QUESTION</t>
+          <t>SF3605_SQ002_</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.01153110859437464</v>
+        <v>0.009730035195653894</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>HADS002</t>
+          <t>FROPCOM0006_S6_</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.01144549562967233</v>
+        <v>0.009435785294206515</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SF36-34</t>
+          <t>MNADEPISTAGEF</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.01110088655489528</v>
+        <v>0.009375200317967907</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,11 +5458,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>mean_velocity_ML_AND_AP_YO_baseline</t>
+          <t>SF36-General health</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.01110052507577181</v>
+        <v>0.009171643319752175</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ006_</t>
+          <t>maximal_distance_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.01015883339247428</v>
+        <v>0.008840888404459971</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>critical_time_Diffusion_AP_YF_baseline</t>
+          <t>sway_area_per_second_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.01001907625329616</v>
+        <v>0.008723612552757262</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>FRAGIRE CALCUL PONDERATION</t>
+          <t>FRAGIRE10</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.009731068795464154</v>
+        <v>0.008417061342519523</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,11 +5510,11 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_AP_YO_baseline</t>
+          <t>principal_sway_direction_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.009644437310273568</v>
+        <v>0.00804220470183273</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>range_ML_AND_AP_YO_baseline</t>
+          <t>critical_displacement_Diffusion_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.009505023229634486</v>
+        <v>0.007758797272011287</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -5536,11 +5536,11 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ002_</t>
+          <t>mean_frequency_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.009140704070745215</v>
+        <v>0.007691371727808094</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5549,11 +5549,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>HHIE01_SQ001_</t>
+          <t>mean_distance_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.008785086627921606</v>
+        <v>0.007628527922643714</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5562,11 +5562,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SF3609_SQ003_</t>
+          <t>Smo_Ent_AccZWaist_baseline</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.008750200292160995</v>
+        <v>0.00756758505114536</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Sym_P1P2_aAP_LB2_baseline</t>
+          <t>power_frequency_95_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.008730128043904578</v>
+        <v>0.007361146405036697</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ014_</t>
+          <t>MFESCALE Dimension activites d exterieur  items_10_14</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.008215603519863409</v>
+        <v>0.007297426652215182</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ009_</t>
+          <t>SF3603_SQ003_</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.007963459159979652</v>
+        <v>0.006935201700873458</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ005_</t>
+          <t>mean_frequency_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.007870563369766343</v>
+        <v>0.006833701349384929</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,11 +5627,11 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>mean_distance_Radius_YF_baseline</t>
+          <t>FROPCOM0007_SQ016_</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.007787198708578286</v>
+        <v>0.006239860934437664</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SF3606</t>
+          <t>Ste_FFTqgAP_LB_baseline</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.007584073442069023</v>
+        <v>0.005969878273388942</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>LFS_ML_AND_AP_YF_baseline</t>
+          <t>MNADEPISTAGEB</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.00745078133305064</v>
+        <v>0.005734751999709655</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>S36-25</t>
+          <t>Sta_RMS_aML_LB_baseline</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.007321631102177606</v>
+        <v>0.005729940653452502</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,11 +5679,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SF3611_SQ004_</t>
+          <t>Sta_Att_gAP_baseline</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.007279350013361872</v>
+        <v>0.00559460489314306</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>mean_frequency_ML_YO_baseline</t>
+          <t>FRAGIRE06TEST1_SQ001_SQ003_</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.007236220317114087</v>
+        <v>0.005353513186576335</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SF3603_SQ009_</t>
+          <t>MNADEPISTAGESCORE</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.007053171065054173</v>
+        <v>0.005322766661626331</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>SF36-19</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.006812565854917999</v>
+        <v>0.004926208711419458</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -5731,11 +5731,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>coefficient_sway_direction_ML_AND_AP_YF_baseline</t>
+          <t>HHIE01_SQ001_</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.006640454929652294</v>
+        <v>0.004732146940584468</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -5744,11 +5744,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>FRAGIRE12</t>
+          <t>FROPCOM00013 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.006157955595277004</v>
+        <v>0.004354977014551671</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>range_ML_AND_AP_YF_baseline</t>
+          <t>Sym_HRaCC_LB_baseline</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.005898524464070005</v>
+        <v>0.004064770525630575</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,11 +5770,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ004_</t>
+          <t>FROPCOM0020 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.005538053358068021</v>
+        <v>0.003757422182718492</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>mean_velocity_AP_YO_baseline</t>
+          <t>SF3607</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.005506235753719393</v>
+        <v>0.003713539348268071</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SF3609_SQ004_</t>
+          <t>FROPCOM0010</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.005454333669536009</v>
+        <v>0.003683933937933115</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5809,11 +5809,11 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Sta_ROM_lML_baseline</t>
+          <t>ICOPE05 TROUBLE AUDITIF</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.005362750034724108</v>
+        <v>0.0033908252871322</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>FROPCOM0019 - COTATION QUESTION</t>
+          <t>HHIE01_SQ006_</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.005358014249996891</v>
+        <v>0.003364300777341271</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5835,11 +5835,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_ML_YO_baseline</t>
+          <t>Ste_P2_aCC_LB2_baseline</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.005331092167363213</v>
+        <v>0.003356531870603976</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>FROPCOM0008_SQ002_</t>
+          <t>peak_velocity_neg_SPD_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.00532909610009316</v>
+        <v>0.003284414278172132</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>phase_plane_parameter_ML_YF_baseline</t>
+          <t>VINCQ08</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.004891858608658022</v>
+        <v>0.003266569630488679</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Syn_dsT_baseline</t>
+          <t>EPICE000_SQ008_</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.004502046983227149</v>
+        <v>0.003118090439225609</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5887,11 +5887,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>rms_Radius_YO_baseline</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.004495917494150164</v>
+        <v>0.003064601627325431</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5900,11 +5900,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>frequency_dispersion_Power_Spectrum_Density_ML_YF_baseline</t>
+          <t>mean_velocity_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.004284993276180087</v>
+        <v>0.002994914334546411</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>energy_content_above_2_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>SOUS SCORE CODES Cotation du test de horloge</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.004248073576865192</v>
+        <v>0.002875741601331776</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,11 +5926,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ004_</t>
+          <t>MeanStepDuration_baseline</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.004237260681154002</v>
+        <v>0.002571702918425787</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,11 +5939,11 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>maximal_distance_AP_YO_baseline</t>
+          <t>SF36-04</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.003938502694739379</v>
+        <v>0.002493032000704303</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ICOPE004</t>
+          <t>FROPCOM0007_SQ020_</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.003526159043947653</v>
+        <v>0.002468422912309632</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5965,11 +5965,11 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>confidence_ellipse_area_ML_AND_AP_YF_baseline</t>
+          <t>Smo_Ent_AccXWaist_baseline</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.003361090986365168</v>
+        <v>0.002093884210909759</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5978,11 +5978,11 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>confidence_ellipse_area_ML_AND_AP_YO_baseline</t>
+          <t>VINICODEX002_SQ001_</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.003308125942667063</v>
+        <v>0.002082516739394422</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5991,11 +5991,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>range_ratio_ML_AND_AP_YF_baseline</t>
+          <t>FROPCOM0007_SQ018_</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.003200274833148353</v>
+        <v>0.002006180414806902</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -6004,11 +6004,11 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>energy_content_05_2_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>FROPCOM0025 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.002865918499245016</v>
+        <v>0.001833256604351784</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>FROPCOM0025 - COTATION QUESTION</t>
+          <t>FROPCOM0007_SQ022_</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.00279340979077719</v>
+        <v>0.001669489524176153</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -6030,11 +6030,11 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>FROPCOM0012_SQ001_</t>
+          <t>SF3608</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.00272417324070089</v>
+        <v>0.001624873415194997</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -6043,11 +6043,11 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>zero_crossing_SPD_AP_YF_baseline</t>
+          <t>rms_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.002710946673352761</v>
+        <v>0.00153066831471628</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -6056,11 +6056,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>FROPCOM0014</t>
+          <t>peak_velocity_neg_SPD_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.002708944906440073</v>
+        <v>0.001362792972470989</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>FRAGIRE08</t>
+          <t>Stu_RMS_aAPF_baseline</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.002700311257553603</v>
+        <v>0.001171685470921838</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ001_</t>
+          <t>ICOPE0051_SQ001_</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.002657130037272381</v>
+        <v>0.001150643494104327</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SF3602</t>
+          <t>SF3604_SQ003_</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.002600048386190457</v>
+        <v>0.001145905844735067</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6108,11 +6108,11 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ICOPE0051_SQ002_</t>
+          <t>total_power_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.002418979481606718</v>
+        <v>0.001052317363494095</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -6121,11 +6121,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Interpretation score MNA depistage</t>
+          <t>SF36-02</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.002310778807731947</v>
+        <v>0.0009839661786675924</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>HHIE02 SCORE INTERPRETATION_1_normal_3_pathologique_</t>
+          <t>sway_area_per_second_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.002128909316557332</v>
+        <v>0.0009596086564964897</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Sta_Lyap_GyrZWaist_baseline</t>
+          <t>Interpretation score MNA depistage</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.002068224987641377</v>
+        <v>0.0009214580590660377</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -6160,11 +6160,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Ste_FFTqgML_LB_baseline</t>
+          <t>FROPCOM0006_S5_</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.002004781965617449</v>
+        <v>0.0008944200461478799</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>FRAGIRE05 CALCUL</t>
+          <t>Sta_Att_gML_baseline</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.001854051979318059</v>
+        <v>0.000848546463370528</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6186,11 +6186,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>mean_peak_Sway_Density_YO_baseline</t>
+          <t>FROPCOM00014 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.001851222254599466</v>
+        <v>0.0008474318255748018</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -6199,11 +6199,11 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SF3603_SQ008_</t>
+          <t>phase_plane_parameter_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.001495215819906477</v>
+        <v>0.0008193798213802074</v>
       </c>
       <c r="C444" t="n">
         <v>0</v>
@@ -6212,11 +6212,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>mean_distance_AP_YO_baseline</t>
+          <t>power_frequency_50_Power_Spectrum_Density_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.001351616335638705</v>
+        <v>0.0008149840867129787</v>
       </c>
       <c r="C445" t="n">
         <v>0</v>
@@ -6225,11 +6225,11 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>FROPCOM0013</t>
+          <t>ICOPE003_SQ003_</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.001284240038676491</v>
+        <v>0.0007283915894456703</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -6238,11 +6238,11 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>HHIE01_SQ005_</t>
+          <t>SF3602</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.001188654100971031</v>
+        <v>0.0006796213656824578</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -6251,11 +6251,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ICOPE05 TROUBLE AUDITIF</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.001138610535714883</v>
+        <v>0.0005262975755242672</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -6264,11 +6264,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>AvgSpeed_baseline</t>
+          <t>ICOPE001</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.001075460324487888</v>
+        <v>0.0003605552773974578</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>Sta_Lyap_AccZWaist_baseline</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.0008160281963543702</v>
+        <v>0.0003459129919637821</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,11 +6290,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SF3608</t>
+          <t>FROPCOM0018</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.0007082337278537699</v>
+        <v>0.0003439699074088457</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -6303,11 +6303,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>FROPCOM0006_S6_</t>
+          <t>Sym_P1P2_aCC_LB2_baseline</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.0006771757634260504</v>
+        <v>0.0003302651990015828</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6316,11 +6316,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>VINICODEX002_SQ004_</t>
+          <t>FROPCOM0014</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.0006526189310031975</v>
+        <v>0.0003270314059910579</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>power_frequency_50_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>FROPCOM0007_SQ005_</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.0006414315872093541</v>
+        <v>0.0003091690299911123</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,11 +6342,11 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>EXAMCLIN022</t>
+          <t>Sta_Att_aML_baseline</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.0005964188872592231</v>
+        <v>0.0002849203247671023</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -6355,11 +6355,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>total_power_Power_Spectrum_Density_AP_YF_baseline</t>
+          <t>ICOPE003_SQ002_</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.000557432598695444</v>
+        <v>0.0002252439336649686</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6368,11 +6368,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ005_</t>
+          <t>Ste_cvSwT_L_baseline</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.0005526868594581675</v>
+        <v>0.0002036315594186841</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>planar_deviation_ML_AND_AP_YO_baseline</t>
+          <t>EPICE000_SQ002_</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.0005172253121065031</v>
+        <v>0.0002020192743176463</v>
       </c>
       <c r="C458" t="n">
         <v>0</v>
@@ -6394,11 +6394,11 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>EPICE000_SQ007_</t>
+          <t>peak_velocity_pos_SPD_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.0004424483392382192</v>
+        <v>0.0002000825320822546</v>
       </c>
       <c r="C459" t="n">
         <v>0</v>
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Ste_cvSwT_L_baseline</t>
+          <t>FROPCOM0008_SQ002_</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.0002591489148915254</v>
+        <v>0.0001824265707039917</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ008_</t>
+          <t>SF36-35</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.000253001658988896</v>
+        <v>0.0001746548904884951</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -6433,11 +6433,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Ste_FFTqaAP_LB_baseline</t>
+          <t>SF36-17</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.0002288075091895454</v>
+        <v>0.0001738203793309172</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -6446,11 +6446,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ003_</t>
+          <t>mean_frequency_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0.0002276580117695346</v>
+        <v>0.0001656706724006023</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>FRAGIRE13</t>
+          <t>Ste_P2_aAP_LB2_baseline</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.0002232900506747591</v>
+        <v>0.0001634326067137109</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -6472,11 +6472,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MFESCALE Dimension activites d interieur items_1_9</t>
+          <t>FROPCOM00010 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.0001633451920786506</v>
+        <v>0.0001113867052991248</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,11 +6485,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Sta_RMS_gAP_LB_baseline</t>
+          <t>power_frequency_95_Power_Spectrum_Density_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.0001616065819746228</v>
+        <v>0.0001077120855165548</v>
       </c>
       <c r="C466" t="n">
         <v>0</v>
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>mean_frequency_AP_YF_baseline</t>
+          <t>long_time_diffusion_Diffusion_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.0001456896452705009</v>
+        <v>7.686582845869735e-05</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>HADS009</t>
+          <t>MMSE07PRAXIES_SQ001_</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.000140812983560296</v>
+        <v>6.339263174632372e-05</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>MeanStepDuration_baseline</t>
+          <t>energy_content_above_2_Power_Spectrum_Density_ML_YF_baseline</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.0001274961258834586</v>
+        <v>3.430703417879033e-05</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ013_</t>
+          <t>MMSE05ATTETCALCUL_SQ001_</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.000119198880396187</v>
+        <v>3.115198490308519e-05</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,11 +6550,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ICOPE003_SQ003_</t>
+          <t>ICOPE004</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.000115595174768797</v>
+        <v>2.96520724331407e-05</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -6563,11 +6563,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>PRECARITE SCORE EPICE</t>
+          <t>HADS006</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.0001108357336489069</v>
+        <v>1.937975618150829e-05</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,11 +6576,11 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>VINICODEX003</t>
+          <t>VINICODEX0004_SQ010_INTERPRETATION_CODEX</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>9.034076864056968e-05</v>
+        <v>1.750174714890334e-05</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>FRAGIRE10</t>
+          <t>FROPCOM0012_SQ001_</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>8.365467027849022e-05</v>
+        <v>1.577088776902322e-05</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -6602,11 +6602,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>FROPCOM0020 - COTATION QUESTION</t>
+          <t>MFESCALE SCORE GLOBAL</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>7.136854089736237e-05</v>
+        <v>1.476001807262279e-05</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -6615,11 +6615,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SF3611_SQ003_</t>
+          <t>MMSE05ATTETCALCUL_SQ005_</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>4.89703698751653e-05</v>
+        <v>1.346305908436281e-05</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>FRAGIRE04 CALCUL</t>
+          <t>HADS013</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>3.268768863516423e-05</v>
+        <v>1.300560273398006e-05</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -6641,11 +6641,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>FROPCOM0012_SQ002_</t>
+          <t>SF36-13</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>2.8592255603339e-05</v>
+        <v>9.782169172027267e-06</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -6654,11 +6654,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>frequency_mode_Power_Spectrum_Density_ML_YO_baseline</t>
+          <t>SPPB04</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1.82079909319386e-05</v>
+        <v>8.33850193109224e-06</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>short_time_scaling_Diffusion_AP_YF_baseline</t>
+          <t>VINICODEX0004_SQ009_</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1.632895719986058e-05</v>
+        <v>7.30515791301177e-06</v>
       </c>
       <c r="C480" t="n">
         <v>0</v>
@@ -6680,11 +6680,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Sway_Density_YF_baseline</t>
+          <t>SF3603_SQ005_</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1.500652559103448e-05</v>
+        <v>6.583329147401659e-06</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Stu_turnN_baseline</t>
+          <t>VINICODEX003</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1.446529194722361e-05</v>
+        <v>5.089349176428127e-06</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -6706,11 +6706,11 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SOUS SCOPE FROPCOM History of Falls</t>
+          <t>SAPASDEMORAN_SQ002_</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>9.766187619191783e-06</v>
+        <v>4.50323225984867e-06</v>
       </c>
       <c r="C483" t="n">
         <v>0</v>
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Spr_SwT_L_baseline</t>
+          <t>ICOPE0041</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>9.601822750093227e-06</v>
+        <v>3.488782111142865e-06</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -6732,11 +6732,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ICOPE0041</t>
+          <t>short_time_diffusion_Diffusion_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>9.517903045131834e-06</v>
+        <v>1.375591090131301e-06</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Spr_SwT_R_baseline</t>
+          <t>HADS012</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>8.445826494859773e-06</v>
+        <v>1.365642285489994e-06</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -6758,11 +6758,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>peak_velocity_pos_SPD_AP_YO_baseline</t>
+          <t>planar_deviation_ML_AND_AP_YF_baseline</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>5.481868537181953e-06</v>
+        <v>1.094638831035966e-06</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -6771,11 +6771,11 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>energy_content_below_05_Power_Spectrum_Density_AP_YO_baseline</t>
+          <t>SOUS SCOPE FROPCOM History of Falls</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>5.080040054887313e-06</v>
+        <v>8.696562102726437e-07</v>
       </c>
       <c r="C488" t="n">
         <v>0</v>
@@ -6784,11 +6784,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>FROPCOM0009 - COTATION QUESTION</t>
+          <t>HHIE02 SCORE INTERPRETATION_1_normal_3_pathologique_</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>3.088661425359908e-06</v>
+        <v>7.082650895180348e-07</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SF36-26</t>
+          <t>SF36-15</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>2.60375984222836e-06</v>
+        <v>4.469359749536452e-07</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>MNADEPISTAGEF</t>
+          <t>VINICODEX002_SQ004_</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1.260082462464529e-06</v>
+        <v>4.066240831027804e-07</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -6823,11 +6823,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ICOPE003_SQ002_</t>
+          <t>SF36-34</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1.213493313528806e-06</v>
+        <v>3.88237350557536e-07</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,11 +6836,11 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ022_</t>
+          <t>VINICODEX002_SQ002_</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1.077323501573199e-06</v>
+        <v>3.861876244317456e-07</v>
       </c>
       <c r="C493" t="n">
         <v>0</v>
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>HADS003</t>
+          <t>SF3604_SQ004_</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>7.139978331179954e-07</v>
+        <v>3.715286067562975e-07</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -6862,11 +6862,11 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>HADS005</t>
+          <t>FROPCOM0006_S1_</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>4.956360684285033e-07</v>
+        <v>4.532314494802987e-08</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -6875,11 +6875,11 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>VINICODEX0004_SQ010_INTERPRETATION_CODEX</t>
+          <t>HHIE01_SQ007_</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>3.557619284085644e-07</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -6888,11 +6888,11 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>DoubleStance_baseline</t>
+          <t>SF36-22</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>8.9945290344028e-08</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>rms_ML_YF_baseline</t>
+          <t>MMSE05ATTETCALCUL_SQ002_</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>EPICE000_SQ003_</t>
+          <t>SF3605_SQ003_</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>FROPCOM00014 - COTATION QUESTION</t>
+          <t>MMSE06LANGAGE3_SQ001_</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>HHIE01_SQ008_</t>
+          <t>FROPCOM0019 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ009_</t>
+          <t>Interpretation score MMSE</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,7 +6966,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ010_</t>
+          <t>planar_deviation_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>FROPCOM00013 - COTATION QUESTION</t>
+          <t>MFESCALE000_SQ012_</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SF3609_SQ002_</t>
+          <t>mean_velocity_ML_AND_AP_YO_baseline</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>MMSE06LANGAGE3_SQ001_</t>
+          <t>MFESCALE000_SQ009_</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ024_</t>
+          <t>FROPCOM0007_SQ010_</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>FROPCOM0017</t>
+          <t>FROPCOM0007_SQ013_</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,7 +7044,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>HHIE01_SQ007_</t>
+          <t>FROPCOM0007_SQ014_</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,7 +7057,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SF36-36</t>
+          <t>FROPCOM0007_SQ017_</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>EPICE000_SQ004_</t>
+          <t>FROPCOM0006_S7_</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>FROPCOM0008-2 - COTATION QUESTION</t>
+          <t>FROPCOM0008_SQ001_</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>FROPCOM00010 - COTATION QUESTION</t>
+          <t>FROPCOM0008-1 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,7 +7109,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>STADE FRAGILITE SELON FRAGIRE</t>
+          <t>FROPCOM0008-2 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Frailty_State_GFST</t>
+          <t>FROPCOM0026_SQ001_</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SF36-15</t>
+          <t>FROPCOM0009 - COTATION QUESTION</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SF36-07</t>
+          <t>FROPCOM0025</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SF3604_SQ001_</t>
+          <t>FROPCOM0007_SQ002_</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ICOPE006_SQ001_</t>
+          <t>peak_velocity_neg_SPD_ML_YO_baseline</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,7 +7187,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SAPASDEMORAN_SQ002_</t>
+          <t>FRAGIRE11 -  COTATION</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>FRAGIRE02</t>
+          <t>HADS004</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>FRAGIRE02 CALCUL</t>
+          <t>FRAGIRE07</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>MFESCALE000_SQ002_</t>
+          <t>SAPAS DE MORAN TROUBLE DE LA PERSONNALITE</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,7 +7239,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SPPB04</t>
+          <t>SF36-33</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ICOPE0052</t>
+          <t>Patient bénéficiant de Lunettes de vue</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>HADS006</t>
+          <t>Variance_Latérale_YF_baseline</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>FRAGIRE11 -  COTATION</t>
+          <t>HADS009</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ICOPE006_SQ002_</t>
+          <t>PRECARITE SCORE EPICE</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>FROPCOM0018</t>
+          <t>EPICE000_SQ003_</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>FROPCOM0010</t>
+          <t>ICOPE0052</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,7 +7330,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>FROPCOM0023</t>
+          <t>EPICE000_SQ009_</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SF36-03</t>
+          <t>ICOPE006_SQ002_</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SOUS SCORE CODES Cotation du test de horloge</t>
+          <t>EPICE000_SQ007_</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SF36-05</t>
+          <t>rms_Radius_YF_baseline</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SF3603_SQ005_</t>
+          <t>EPICE000_SQ004_</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,39 +7395,13 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>HADS TOTAL D Pathologique_sup_ou_egal_11</t>
+          <t>ICOPE006 Trouble psychologique</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>FROPCOM0002</t>
-        </is>
-      </c>
-      <c r="B537" t="n">
-        <v>0</v>
-      </c>
-      <c r="C537" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>FROPCOM0007_SQ008_</t>
-        </is>
-      </c>
-      <c r="B538" t="n">
-        <v>0</v>
-      </c>
-      <c r="C538" t="n">
         <v>0</v>
       </c>
     </row>
